--- a/生徒名簿.xlsx
+++ b/生徒名簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seat_changer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eisu_Seat_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E866AA6F-0A60-4B86-9FAD-AEA6837693E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B0C831-B25C-4777-A8F3-E3DF8634D9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
+    <workbookView xWindow="-8385" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="生徒名簿" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
@@ -211,6 +211,28 @@
   </si>
   <si>
     <t>1000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高山</t>
+    <rPh sb="0" eb="2">
+      <t>タカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タカヤマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東進</t>
+    <rPh sb="0" eb="2">
+      <t>トウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -578,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4D215-FF2C-4AAC-82BC-132E95DB16F6}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -752,6 +774,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/生徒名簿.xlsx
+++ b/生徒名簿.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eisu_Seat_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B0C831-B25C-4777-A8F3-E3DF8634D9B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CAB44-6AE6-4231-847D-7A2A8ECE9123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8385" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="生徒名簿" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
@@ -232,6 +233,69 @@
     <t>東進</t>
     <rPh sb="0" eb="2">
       <t>トウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中2</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤2</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武藤2</t>
+    <rPh sb="0" eb="2">
+      <t>ムトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小島2</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正田2</t>
+    <rPh sb="0" eb="2">
+      <t>マサダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芹沢2</t>
+    <rPh sb="0" eb="2">
+      <t>セリザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柳井2</t>
+    <rPh sb="0" eb="2">
+      <t>ヤナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斎藤2</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高山2</t>
+    <rPh sb="0" eb="2">
+      <t>タカヤマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4D215-FF2C-4AAC-82BC-132E95DB16F6}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -793,4 +857,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD235D-640F-4A25-A602-1A72F0834EB1}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/生徒名簿.xlsx
+++ b/生徒名簿.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eisu_Seat_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1CAB44-6AE6-4231-847D-7A2A8ECE9123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4244E9-513B-416D-BC97-4E8D2BA0EC0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
+    <workbookView xWindow="7200" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="生徒名簿" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="小2" sheetId="3" r:id="rId1"/>
+    <sheet name="小5" sheetId="1" r:id="rId2"/>
+    <sheet name="小6" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
@@ -191,34 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0900000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0800000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0700000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1300001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1200001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高山</t>
     <rPh sb="0" eb="2">
       <t>タカヤマ</t>
@@ -297,6 +270,18 @@
     <rPh sb="0" eb="2">
       <t>タカヤマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2200000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0100000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -663,6 +648,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB90CD49-6332-4985-A46C-6F6B912F5491}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4D215-FF2C-4AAC-82BC-132E95DB16F6}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -699,8 +881,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1300000</v>
+      <c r="A2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -713,8 +895,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1200000</v>
+      <c r="A3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -727,8 +909,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>1100000</v>
+      <c r="A4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -741,8 +923,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1000000</v>
+      <c r="A5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -756,7 +938,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -770,7 +952,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -784,7 +966,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -798,7 +980,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -812,7 +994,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -826,7 +1008,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -840,16 +1022,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -859,12 +1041,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD235D-640F-4A25-A602-1A72F0834EB1}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -896,11 +1078,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1300000</v>
+      <c r="A2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -910,11 +1092,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1200000</v>
+      <c r="A3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -924,11 +1106,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>1100000</v>
+      <c r="A4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -938,11 +1120,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>1000000</v>
+      <c r="A5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -953,10 +1135,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -967,10 +1149,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -981,10 +1163,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -995,10 +1177,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -1009,10 +1191,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1023,10 +1205,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1037,16 +1219,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/生徒名簿.xlsx
+++ b/生徒名簿.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eisu_Seat_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4244E9-513B-416D-BC97-4E8D2BA0EC0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B0E80-474B-4458-86C2-CD0EAADE0365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
+    <workbookView xWindow="3825" yWindow="2100" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="小2" sheetId="3" r:id="rId1"/>
-    <sheet name="小5" sheetId="1" r:id="rId2"/>
-    <sheet name="小6" sheetId="2" r:id="rId3"/>
+    <sheet name="小4" sheetId="4" r:id="rId2"/>
+    <sheet name="小5" sheetId="1" r:id="rId3"/>
+    <sheet name="小6" sheetId="2" r:id="rId4"/>
+    <sheet name="中1" sheetId="5" r:id="rId5"/>
+    <sheet name="中2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="44">
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
@@ -282,6 +285,18 @@
   </si>
   <si>
     <t>0100000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3400000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2100002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2500002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -651,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB90CD49-6332-4985-A46C-6F6B912F5491}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -716,13 +731,13 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -845,7 +860,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70421056-4F27-4F12-8FF3-3370A37ACFE9}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4D215-FF2C-4AAC-82BC-132E95DB16F6}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD235D-640F-4A25-A602-1A72F0834EB1}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279BA5DB-45A1-4496-A4FA-A9DFA9D8D08D}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -882,10 +1446,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -896,10 +1460,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -910,10 +1474,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -924,10 +1488,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -938,10 +1502,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -952,10 +1516,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -966,10 +1530,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -980,10 +1544,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -994,10 +1558,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1008,10 +1572,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1022,10 +1586,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1037,16 +1601,15 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD235D-640F-4A25-A602-1A72F0834EB1}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BD506A-5D0E-44F5-B68F-BB30D11F7EA5}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1079,7 +1642,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -1093,7 +1656,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -1107,7 +1670,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1121,7 +1684,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -1135,7 +1698,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -1149,7 +1712,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1163,7 +1726,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1177,7 +1740,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -1191,7 +1754,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1205,7 +1768,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -1219,7 +1782,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>

--- a/生徒名簿.xlsx
+++ b/生徒名簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eisu_Seat_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B0E80-474B-4458-86C2-CD0EAADE0365}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAA464-9089-4FFF-9B9E-BCE88B3F1396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2100" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="小2" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="39">
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
@@ -164,37 +164,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電話番号</t>
-    <rPh sb="0" eb="4">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学校名</t>
-    <rPh sb="0" eb="2">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在籍</t>
-    <rPh sb="0" eb="2">
-      <t>ザイセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>面談</t>
-    <rPh sb="0" eb="2">
-      <t>メンダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高山</t>
     <rPh sb="0" eb="2">
       <t>タカヤマ</t>
@@ -203,13 +172,6 @@
   </si>
   <si>
     <t>タカヤマ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東進</t>
-    <rPh sb="0" eb="2">
-      <t>トウシン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -664,15 +626,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB90CD49-6332-4985-A46C-6F6B912F5491}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -683,24 +645,12 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -708,13 +658,13 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -722,13 +672,13 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -736,13 +686,13 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -750,13 +700,13 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -764,13 +714,13 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -778,13 +728,13 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -792,13 +742,13 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -806,13 +756,13 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -820,13 +770,13 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -834,22 +784,22 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -861,15 +811,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70421056-4F27-4F12-8FF3-3370A37ACFE9}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D1" sqref="D1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -880,24 +830,12 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -905,13 +843,13 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -919,13 +857,13 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -933,13 +871,13 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -947,13 +885,13 @@
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -961,13 +899,13 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -975,13 +913,13 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -989,22 +927,22 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1016,15 +954,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4D215-FF2C-4AAC-82BC-132E95DB16F6}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="D1" sqref="D1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1035,24 +973,12 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1060,13 +986,13 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1074,13 +1000,13 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1088,13 +1014,13 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1102,13 +1028,13 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1116,13 +1042,13 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1130,13 +1056,13 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1144,13 +1070,13 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -1158,13 +1084,13 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1172,13 +1098,13 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1186,22 +1112,22 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1213,15 +1139,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD235D-640F-4A25-A602-1A72F0834EB1}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D1" sqref="D1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1232,173 +1158,161 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1410,15 +1324,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279BA5DB-45A1-4496-A4FA-A9DFA9D8D08D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1429,173 +1343,161 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1606,15 +1508,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BD506A-5D0E-44F5-B68F-BB30D11F7EA5}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1625,173 +1527,161 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/生徒名簿.xlsx
+++ b/生徒名簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eisu_Seat_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAA464-9089-4FFF-9B9E-BCE88B3F1396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E655FD-6B85-4268-AAC8-8BBA73DD22D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D9D5D34A-3ED5-431E-AE82-4EA5E6C77CE1}"/>
   </bookViews>
   <sheets>
     <sheet name="小2" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="40">
   <si>
     <t>田中</t>
     <rPh sb="0" eb="2">
@@ -73,13 +73,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本科</t>
-    <rPh sb="0" eb="2">
-      <t>ホンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正田</t>
     <rPh sb="0" eb="2">
       <t>マサダ</t>
@@ -106,9 +99,6 @@
       <t>サイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特講</t>
   </si>
   <si>
     <t>在籍番号</t>
@@ -259,6 +249,18 @@
   </si>
   <si>
     <t>2500002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -628,21 +630,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB90CD49-6332-4985-A46C-6F6B912F5491}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -650,156 +652,156 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -814,20 +816,20 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G9"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -835,114 +837,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -957,20 +959,20 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G12"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -978,156 +980,156 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1142,20 +1144,20 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G12"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1163,156 +1165,156 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1327,20 +1329,20 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1348,156 +1350,156 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1510,21 +1512,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BD506A-5D0E-44F5-B68F-BB30D11F7EA5}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1532,156 +1534,156 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
